--- a/data/costassumptions.xlsx
+++ b/data/costassumptions.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
-  <si>
-    <t>AOM_Debris</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>AOM_Replant</t>
   </si>
@@ -126,6 +123,30 @@
   </si>
   <si>
     <t>SR_Plant_sqy</t>
+  </si>
+  <si>
+    <t>Site preparation</t>
+  </si>
+  <si>
+    <t>SF_Exc_mash_sqy_m</t>
+  </si>
+  <si>
+    <t>Site Formation</t>
+  </si>
+  <si>
+    <t>Struture Componets</t>
+  </si>
+  <si>
+    <t>Site Restoration</t>
+  </si>
+  <si>
+    <t>AOM_Debris_visit</t>
+  </si>
+  <si>
+    <t>annual_operation_maintenance</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -141,12 +162,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,8 +212,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,214 +509,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>1.5</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
         <v>0.01</v>
       </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-      <c r="G2">
-        <v>350</v>
-      </c>
-      <c r="H2">
-        <v>1.5</v>
-      </c>
-      <c r="I2">
-        <v>9.84</v>
-      </c>
-      <c r="J2">
-        <v>2.46</v>
-      </c>
-      <c r="K2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L2">
-        <v>1.5</v>
-      </c>
-      <c r="M2">
-        <v>3.2810000000000001</v>
-      </c>
-      <c r="N2">
-        <v>2000</v>
-      </c>
-      <c r="O2">
-        <v>3500</v>
-      </c>
-      <c r="P2">
-        <v>4.5</v>
-      </c>
-      <c r="Q2">
-        <v>25</v>
-      </c>
-      <c r="R2">
-        <v>0.5</v>
-      </c>
-      <c r="S2">
-        <v>30</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>100</v>
-      </c>
-      <c r="V2">
-        <v>500</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2">
-        <v>75</v>
-      </c>
-      <c r="Y2">
-        <v>10</v>
-      </c>
-      <c r="Z2">
-        <v>150</v>
-      </c>
-      <c r="AA2">
-        <v>125</v>
-      </c>
-      <c r="AB2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1.5</v>
-      </c>
-      <c r="E3">
-        <v>0.03</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
+      <c r="F3" t="s">
+        <v>40</v>
       </c>
       <c r="G3">
         <v>350</v>
@@ -662,81 +680,84 @@
         <v>9.84</v>
       </c>
       <c r="J3">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K3">
         <v>4.0999999999999996</v>
       </c>
       <c r="L3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3500</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>4.5</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>25</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>30</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>100</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>500</v>
       </c>
-      <c r="W3">
-        <v>10</v>
-      </c>
       <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
         <v>75</v>
       </c>
-      <c r="Y3">
-        <v>10</v>
-      </c>
       <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
         <v>150</v>
       </c>
-      <c r="AA3">
-        <v>125</v>
-      </c>
       <c r="AB3">
         <v>125</v>
       </c>
+      <c r="AC3">
+        <v>125</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
+        <v>0.03</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
       </c>
       <c r="G4">
         <v>350</v>
@@ -748,81 +769,84 @@
         <v>9.84</v>
       </c>
       <c r="J4">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K4">
         <v>4.0999999999999996</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
+        <v>1.5</v>
+      </c>
+      <c r="N4">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3500</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4.5</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>25</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.5</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>30</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>100</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>500</v>
       </c>
-      <c r="W4">
-        <v>10</v>
-      </c>
       <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
         <v>75</v>
       </c>
-      <c r="Y4">
-        <v>10</v>
-      </c>
       <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
         <v>150</v>
       </c>
-      <c r="AA4">
-        <v>125</v>
-      </c>
       <c r="AB4">
         <v>125</v>
       </c>
+      <c r="AC4">
+        <v>125</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>1000</v>
+        <v>0.05</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
       </c>
       <c r="G5">
         <v>350</v>
@@ -834,81 +858,84 @@
         <v>9.84</v>
       </c>
       <c r="J5">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K5">
         <v>4.0999999999999996</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="N5">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3500</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4.5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>25</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.5</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>30</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>100</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>500</v>
       </c>
-      <c r="W5">
-        <v>10</v>
-      </c>
       <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
         <v>75</v>
       </c>
-      <c r="Y5">
-        <v>10</v>
-      </c>
       <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
         <v>150</v>
       </c>
-      <c r="AA5">
-        <v>125</v>
-      </c>
       <c r="AB5">
         <v>125</v>
       </c>
+      <c r="AC5">
+        <v>125</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
-      </c>
-      <c r="F6">
-        <v>1000</v>
+        <v>0.01</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
       </c>
       <c r="G6">
         <v>350</v>
@@ -920,81 +947,84 @@
         <v>9.84</v>
       </c>
       <c r="J6">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K6">
         <v>4.0999999999999996</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3500</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>25</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.5</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>30</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>100</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>500</v>
       </c>
-      <c r="W6">
-        <v>10</v>
-      </c>
       <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
         <v>75</v>
       </c>
-      <c r="Y6">
-        <v>10</v>
-      </c>
       <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
         <v>150</v>
       </c>
-      <c r="AA6">
-        <v>125</v>
-      </c>
       <c r="AB6">
         <v>125</v>
       </c>
+      <c r="AC6">
+        <v>125</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
-      </c>
-      <c r="F7">
-        <v>1000</v>
+        <v>0.03</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
       </c>
       <c r="G7">
         <v>350</v>
@@ -1006,81 +1036,84 @@
         <v>9.84</v>
       </c>
       <c r="J7">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K7">
         <v>4.0999999999999996</v>
       </c>
       <c r="L7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
+        <v>1.5</v>
+      </c>
+      <c r="N7">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3500</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>4.5</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>25</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.5</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>30</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>100</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>500</v>
       </c>
-      <c r="W7">
-        <v>10</v>
-      </c>
       <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
         <v>75</v>
       </c>
-      <c r="Y7">
-        <v>10</v>
-      </c>
       <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
         <v>150</v>
       </c>
-      <c r="AA7">
-        <v>125</v>
-      </c>
       <c r="AB7">
         <v>125</v>
       </c>
+      <c r="AC7">
+        <v>125</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
+        <v>0.05</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
       <c r="G8">
         <v>350</v>
@@ -1092,72 +1125,75 @@
         <v>9.84</v>
       </c>
       <c r="J8">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K8">
         <v>4.0999999999999996</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3500</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>4.5</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>25</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.5</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>30</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>100</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>500</v>
       </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
       <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
         <v>75</v>
       </c>
-      <c r="Y8">
-        <v>10</v>
-      </c>
       <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
         <v>150</v>
       </c>
-      <c r="AA8">
-        <v>125</v>
-      </c>
       <c r="AB8">
         <v>125</v>
       </c>
+      <c r="AC8">
+        <v>125</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1166,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>350</v>
@@ -1178,72 +1214,75 @@
         <v>9.84</v>
       </c>
       <c r="J9">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K9">
         <v>4.0999999999999996</v>
       </c>
       <c r="L9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
+        <v>1.5</v>
+      </c>
+      <c r="N9">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3500</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>4.5</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>25</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.5</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>30</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>100</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>500</v>
       </c>
-      <c r="W9">
-        <v>10</v>
-      </c>
       <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
         <v>75</v>
       </c>
-      <c r="Y9">
-        <v>10</v>
-      </c>
       <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
         <v>150</v>
       </c>
-      <c r="AA9">
-        <v>125</v>
-      </c>
       <c r="AB9">
         <v>125</v>
       </c>
+      <c r="AC9">
+        <v>125</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1252,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G10">
         <v>350</v>
@@ -1264,72 +1303,75 @@
         <v>9.84</v>
       </c>
       <c r="J10">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K10">
         <v>4.0999999999999996</v>
       </c>
       <c r="L10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
+        <v>1.5</v>
+      </c>
+      <c r="N10">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3500</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>4.5</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>25</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>30</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>100</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>500</v>
       </c>
-      <c r="W10">
-        <v>10</v>
-      </c>
       <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
         <v>75</v>
       </c>
-      <c r="Y10">
-        <v>10</v>
-      </c>
       <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
         <v>150</v>
       </c>
-      <c r="AA10">
-        <v>125</v>
-      </c>
       <c r="AB10">
         <v>125</v>
       </c>
+      <c r="AC10">
+        <v>125</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1338,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G11">
         <v>350</v>
@@ -1350,81 +1392,84 @@
         <v>9.84</v>
       </c>
       <c r="J11">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K11">
         <v>4.0999999999999996</v>
       </c>
       <c r="L11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
+        <v>1.5</v>
+      </c>
+      <c r="N11">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3500</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4.5</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>25</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.5</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>30</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>100</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>500</v>
       </c>
-      <c r="W11">
-        <v>10</v>
-      </c>
       <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
         <v>75</v>
       </c>
-      <c r="Y11">
-        <v>10</v>
-      </c>
       <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
         <v>150</v>
       </c>
-      <c r="AA11">
-        <v>125</v>
-      </c>
       <c r="AB11">
         <v>125</v>
       </c>
+      <c r="AC11">
+        <v>125</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G12">
         <v>350</v>
@@ -1436,72 +1481,75 @@
         <v>9.84</v>
       </c>
       <c r="J12">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K12">
         <v>4.0999999999999996</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3500</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>4.5</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>25</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.5</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>30</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>100</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>500</v>
       </c>
-      <c r="W12">
-        <v>10</v>
-      </c>
       <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
         <v>75</v>
       </c>
-      <c r="Y12">
-        <v>10</v>
-      </c>
       <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
         <v>150</v>
       </c>
-      <c r="AA12">
-        <v>125</v>
-      </c>
       <c r="AB12">
         <v>125</v>
       </c>
+      <c r="AC12">
+        <v>125</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1510,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>350</v>
@@ -1522,72 +1570,75 @@
         <v>9.84</v>
       </c>
       <c r="J13">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K13">
         <v>4.0999999999999996</v>
       </c>
       <c r="L13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M13">
+        <v>1.5</v>
+      </c>
+      <c r="N13">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3500</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>4.5</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>25</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.5</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>30</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>100</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>500</v>
       </c>
-      <c r="W13">
-        <v>10</v>
-      </c>
       <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
         <v>75</v>
       </c>
-      <c r="Y13">
-        <v>10</v>
-      </c>
       <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
         <v>150</v>
       </c>
-      <c r="AA13">
-        <v>125</v>
-      </c>
       <c r="AB13">
         <v>125</v>
       </c>
+      <c r="AC13">
+        <v>125</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1596,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G14">
         <v>350</v>
@@ -1608,72 +1659,75 @@
         <v>9.84</v>
       </c>
       <c r="J14">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K14">
         <v>4.0999999999999996</v>
       </c>
       <c r="L14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
+        <v>1.5</v>
+      </c>
+      <c r="N14">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3500</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>4.5</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>25</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.5</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>30</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>100</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>500</v>
       </c>
-      <c r="W14">
-        <v>10</v>
-      </c>
       <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
         <v>75</v>
       </c>
-      <c r="Y14">
-        <v>10</v>
-      </c>
       <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
         <v>150</v>
       </c>
-      <c r="AA14">
-        <v>125</v>
-      </c>
       <c r="AB14">
         <v>125</v>
       </c>
+      <c r="AC14">
+        <v>125</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1682,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G15">
         <v>350</v>
@@ -1694,64 +1748,163 @@
         <v>9.84</v>
       </c>
       <c r="J15">
-        <v>2.46</v>
+        <v>29.527499999999996</v>
       </c>
       <c r="K15">
         <v>4.0999999999999996</v>
       </c>
       <c r="L15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
+        <v>1.5</v>
+      </c>
+      <c r="N15">
         <v>3.2810000000000001</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3500</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>4.5</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>25</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.5</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>30</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>100</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>500</v>
       </c>
-      <c r="W15">
-        <v>10</v>
-      </c>
       <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
         <v>75</v>
       </c>
-      <c r="Y15">
-        <v>10</v>
-      </c>
       <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
         <v>150</v>
       </c>
-      <c r="AA15">
-        <v>125</v>
-      </c>
       <c r="AB15">
+        <v>125</v>
+      </c>
+      <c r="AC15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2000</v>
+      </c>
+      <c r="G16">
+        <v>350</v>
+      </c>
+      <c r="H16">
+        <v>1.5</v>
+      </c>
+      <c r="I16">
+        <v>9.84</v>
+      </c>
+      <c r="J16">
+        <v>29.527499999999996</v>
+      </c>
+      <c r="K16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.5</v>
+      </c>
+      <c r="N16">
+        <v>3.2810000000000001</v>
+      </c>
+      <c r="O16">
+        <v>2000</v>
+      </c>
+      <c r="P16">
+        <v>3500</v>
+      </c>
+      <c r="Q16">
+        <v>4.5</v>
+      </c>
+      <c r="R16">
+        <v>25</v>
+      </c>
+      <c r="S16">
+        <v>0.5</v>
+      </c>
+      <c r="T16">
+        <v>30</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>100</v>
+      </c>
+      <c r="W16">
+        <v>500</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>75</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>150</v>
+      </c>
+      <c r="AB16">
+        <v>125</v>
+      </c>
+      <c r="AC16">
         <v>125</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/costassumptions.xlsx
+++ b/data/costassumptions.xlsx
@@ -53,9 +53,6 @@
     <t>Deep</t>
   </si>
   <si>
-    <t>Mash</t>
-  </si>
-  <si>
     <t>C_W</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>Marsh</t>
   </si>
 </sst>
 </file>
@@ -220,10 +220,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -512,7 +512,7 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,30 +529,30 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
       <c r="V1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
@@ -564,70 +564,70 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
         <v>1</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -668,7 +668,7 @@
         <v>0.01</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>350</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -757,7 +757,7 @@
         <v>0.03</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>350</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -846,7 +846,7 @@
         <v>0.05</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>350</v>
@@ -920,13 +920,13 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -935,7 +935,7 @@
         <v>0.01</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>350</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>0.5</v>
@@ -1024,7 +1024,7 @@
         <v>0.03</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>350</v>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -1113,7 +1113,7 @@
         <v>0.05</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>350</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1</v>
